--- a/Question_Set2/Software skills/Microsoft SharePoint Administration.xlsx
+++ b/Question_Set2/Software skills/Microsoft SharePoint Administration.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': "As your company’s SharePoint administrator, you have been tasked with configuring a new web application for SharePoint. The organization's security policy requires that all web applications use HTTPS and that all SSL certificates have been acquired from trusted sources. Which action should you take?", 'ques_type': 2, 'options': ['Create a new self-signed SSL certificate using IIS Manager.', 'Purchase a third-party SSL certificate and install it on the SharePoint server.', 'Enable SSL on the server hosting the web application.', 'Use the built-in SharePoint Self-Service Site Creation feature to create the web application.'], 'score': 'Purchase a third-party SSL certificate and install it on the SharePoint server.'}, {'title': 'As a SharePoint Administrator, you have been tasked with configuring the authentication and authorization settings for a SharePoint 2019 environment. The organization has recently implemented Active Directory Federation Services (ADFS) for user authentication.  Which of the following should you configure?', 'ques_type': 2, 'options': ["Windows Authentication in the web application's Authentication Providers settings.", "Forms Authentication in the web application's Authentication Providers settings.", "Claims-based Authentication in the web application's Authentication Providers settings.", "Anonymous Authentication in the web application's Authentication Providers settings."], 'score': "Claims-based Authentication in the web application's Authentication Providers settings."}, {'title': 'You have been assigned the task of configuring a Sharepoint farm with high availability by an organization with limited resources, so the organization cannot afford to purchase additional servers for redundancy. Which action should you take?', 'ques_type': 2, 'options': ['Configure a SharePoint farm with two servers, and use SQL Server Always On Availability Groups.', 'Use Windows Network Load Balancing.', 'Configure a SharePoint farm with a single server, and use SQL Server log shipping.', 'Configure a SharePoint farm with a single server, and use mirroring.'], 'score': 'Configure a SharePoint farm with two servers, and use SQL Server Always On Availability Groups.'}, {'title': 'Your organization has a large volume of data to index, and users in various departments are reporting slow search results. As the SharePoint Administrator, you have investigated the issue and discovered that the search performance is slow because the SharePoint search service is competing with other services for resources on the same server.Which action should you take?', 'ques_type': 2, 'options': ['Configure SharePoint to use a dedicated server for search.', 'Increase the available memory on the SharePoint server.', 'Increase the maximum number of crawled items per search', 'Schedule incremental crawls more frequently.'], 'score': 'Configure SharePoint to use a dedicated server for search.'}]</t>
+    <t>questions = [
+    {
+        "title": "As your company\u2019s SharePoint administrator, you have been tasked with configuring a new web application for SharePoint. The organization's security policy requires that all web applications use HTTPS and that all SSL certificates have been acquired from trusted sources. Which action should you take?",
+        "ques_type": 2,
+        "options": [
+            "Create a new self-signed SSL certificate using IIS Manager.",
+            "Purchase a third-party SSL certificate and install it on the SharePoint server.",
+            "Enable SSL on the server hosting the web application.",
+            "Use the built-in SharePoint Self-Service Site Creation feature to create the web application."
+        ],
+        "score": "Purchase a third-party SSL certificate and install it on the SharePoint server."
+    },
+    {
+        "title": "As a SharePoint Administrator, you have been tasked with configuring the authentication and authorization settings for a SharePoint 2019 environment. The organization has recently implemented Active Directory Federation Services (ADFS) for user authentication.  Which of the following should you configure?",
+        "ques_type": 2,
+        "options": [
+            "Windows Authentication in the web application's Authentication Providers settings.",
+            "Forms Authentication in the web application's Authentication Providers settings.",
+            "Claims-based Authentication in the web application's Authentication Providers settings.",
+            "Anonymous Authentication in the web application's Authentication Providers settings."
+        ],
+        "score": "Claims-based Authentication in the web application's Authentication Providers settings."
+    },
+    {
+        "title": "You have been assigned the task of configuring a Sharepoint farm with high availability by an organization with limited resources, so the organization cannot afford to purchase additional servers for redundancy. Which action should you take?",
+        "ques_type": 2,
+        "options": [
+            "Configure a SharePoint farm with two servers, and use SQL Server Always On Availability Groups.",
+            "Use Windows Network Load Balancing.",
+            "Configure a SharePoint farm with a single server, and use SQL Server log shipping.",
+            "Configure a SharePoint farm with a single server, and use mirroring."
+        ],
+        "score": "Configure a SharePoint farm with two servers, and use SQL Server Always On Availability Groups."
+    },
+    {
+        "title": "Your organization has a large volume of data to index, and users in various departments are reporting slow search results. As the SharePoint Administrator, you have investigated the issue and discovered that the search performance is slow because the SharePoint search service is competing with other services for resources on the same server.Which action should you take?",
+        "ques_type": 2,
+        "options": [
+            "Configure SharePoint to use a dedicated server for search.",
+            "Increase the available memory on the SharePoint server.",
+            "Increase the maximum number of crawled items per search",
+            "Schedule incremental crawls more frequently."
+        ],
+        "score": "Configure SharePoint to use a dedicated server for search."
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
